--- a/data/전처리완료데이터(추가본).xlsx
+++ b/data/전처리완료데이터(추가본).xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ICT01_01\파이썬 파일\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python-Project\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{544E9CFF-5D1B-48A9-A6DB-532160B8A0F6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8B65A69-1FA3-4F3D-B2FE-6575C3E9E63E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
   <si>
     <t>Unnamed: 0</t>
   </si>
@@ -173,6 +173,10 @@
   </si>
   <si>
     <t>클린하우스개수</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>지역코드</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -606,10 +610,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H44"/>
+  <dimension ref="A1:I44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+      <selection activeCell="J11" sqref="J11:K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -618,9 +622,11 @@
     <col min="3" max="3" width="6.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.25" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -645,8 +651,11 @@
       <c r="H1" s="3" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I1" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -671,8 +680,11 @@
       <c r="H2" s="2">
         <v>119</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I2">
+        <v>3901054</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -697,8 +709,11 @@
       <c r="H3" s="2">
         <v>129</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I3">
+        <v>3901065</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -723,8 +738,11 @@
       <c r="H4" s="2">
         <v>123</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I4">
+        <v>3901066</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -749,8 +767,11 @@
       <c r="H5" s="2">
         <v>164</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I5">
+        <v>3901012</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
@@ -775,8 +796,11 @@
       <c r="H6" s="2">
         <v>65</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I6">
+        <v>3901052</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
@@ -801,8 +825,11 @@
       <c r="H7" s="2">
         <v>160</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I7">
+        <v>3901011</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6</v>
       </c>
@@ -827,8 +854,11 @@
       <c r="H8" s="2">
         <v>91</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I8">
+        <v>3901063</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>7</v>
       </c>
@@ -853,8 +883,11 @@
       <c r="H9" s="2">
         <v>218</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I9">
+        <v>3901014</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>8</v>
       </c>
@@ -879,8 +912,11 @@
       <c r="H10" s="2">
         <v>136</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I10">
+        <v>3902011</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>9</v>
       </c>
@@ -905,8 +941,11 @@
       <c r="H11" s="2">
         <v>46</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I11">
+        <v>3902057</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>10</v>
       </c>
@@ -931,8 +970,11 @@
       <c r="H12" s="2">
         <v>188</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I12">
+        <v>3901013</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>11</v>
       </c>
@@ -957,8 +999,11 @@
       <c r="H13" s="2">
         <v>67</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I13">
+        <v>3901060</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>12</v>
       </c>
@@ -983,8 +1028,11 @@
       <c r="H14" s="2">
         <v>22</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I14">
+        <v>3901053</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>13</v>
       </c>
@@ -1009,8 +1057,11 @@
       <c r="H15" s="2">
         <v>47</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I15">
+        <v>3902013</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>14</v>
       </c>
@@ -1035,8 +1086,11 @@
       <c r="H16" s="2">
         <v>30</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I16">
+        <v>3901055</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>15</v>
       </c>
@@ -1061,8 +1115,11 @@
       <c r="H17" s="2">
         <v>13</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I17">
+        <v>3901051</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>16</v>
       </c>
@@ -1087,8 +1144,11 @@
       <c r="H18" s="2">
         <v>8</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I18">
+        <v>3902053</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>17</v>
       </c>
@@ -1113,8 +1173,11 @@
       <c r="H19" s="2">
         <v>43</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I19">
+        <v>3902032</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>18</v>
       </c>
@@ -1139,8 +1202,11 @@
       <c r="H20" s="2">
         <v>58</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I20">
+        <v>3901067</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>19</v>
       </c>
@@ -1165,8 +1231,11 @@
       <c r="H21" s="2">
         <v>57</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I21">
+        <v>3902012</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>20</v>
       </c>
@@ -1191,8 +1260,11 @@
       <c r="H22" s="2">
         <v>33</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I22">
+        <v>3901056</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>21</v>
       </c>
@@ -1217,8 +1289,11 @@
       <c r="H23" s="2">
         <v>69</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I23">
+        <v>3901058</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>22</v>
       </c>
@@ -1243,8 +1318,11 @@
       <c r="H24" s="2">
         <v>57</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I24">
+        <v>3902031</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>23</v>
       </c>
@@ -1269,8 +1347,11 @@
       <c r="H25" s="2">
         <v>29</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I25">
+        <v>3901069</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>24</v>
       </c>
@@ -1295,8 +1376,11 @@
       <c r="H26" s="2">
         <v>54</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I26">
+        <v>3901064</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>25</v>
       </c>
@@ -1321,8 +1405,11 @@
       <c r="H27" s="2">
         <v>77</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I27">
+        <v>3901061</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>26</v>
       </c>
@@ -1347,8 +1434,11 @@
       <c r="H28" s="2">
         <v>32</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I28">
+        <v>3901057</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>27</v>
       </c>
@@ -1373,8 +1463,11 @@
       <c r="H29" s="2">
         <v>45</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I29">
+        <v>3901059</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>28</v>
       </c>
@@ -1399,8 +1492,11 @@
       <c r="H30" s="2">
         <v>32</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I30">
+        <v>3902061</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>29</v>
       </c>
@@ -1425,8 +1521,11 @@
       <c r="H31" s="2">
         <v>12</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I31">
+        <v>3902054</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>30</v>
       </c>
@@ -1451,8 +1550,11 @@
       <c r="H32" s="2">
         <v>34</v>
       </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I32">
+        <v>3902059</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>31</v>
       </c>
@@ -1477,8 +1579,11 @@
       <c r="H33" s="2">
         <v>130</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I33">
+        <v>3901031</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>32</v>
       </c>
@@ -1503,8 +1608,11 @@
       <c r="H34" s="2">
         <v>10</v>
       </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I34">
+        <v>3902052</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>33</v>
       </c>
@@ -1529,8 +1637,11 @@
       <c r="H35" s="2">
         <v>22</v>
       </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I35">
+        <v>3902058</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>34</v>
       </c>
@@ -1555,8 +1666,11 @@
       <c r="H36" s="2">
         <v>29</v>
       </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I36">
+        <v>3902060</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>35</v>
       </c>
@@ -1581,8 +1695,11 @@
       <c r="H37" s="2">
         <v>20</v>
       </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I37">
+        <v>3902056</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>36</v>
       </c>
@@ -1607,8 +1724,11 @@
       <c r="H38" s="2">
         <v>19</v>
       </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I38">
+        <v>3902062</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>37</v>
       </c>
@@ -1633,8 +1753,11 @@
       <c r="H39" s="2">
         <v>20</v>
       </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I39">
+        <v>3902051</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>38</v>
       </c>
@@ -1659,8 +1782,11 @@
       <c r="H40" s="2">
         <v>22</v>
       </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I40">
+        <v>3901033</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>39</v>
       </c>
@@ -1685,8 +1811,11 @@
       <c r="H41" s="2">
         <v>31</v>
       </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I41">
+        <v>3902055</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>40</v>
       </c>
@@ -1711,8 +1840,11 @@
       <c r="H42" s="2">
         <v>30</v>
       </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I42">
+        <v>3901068</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>41</v>
       </c>
@@ -1737,8 +1869,11 @@
       <c r="H43" s="2">
         <v>22</v>
       </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I43">
+        <v>3901062</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>42</v>
       </c>
@@ -1762,10 +1897,14 @@
       </c>
       <c r="H44" s="2">
         <v>23</v>
+      </c>
+      <c r="I44">
+        <v>3901032</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/data/전처리완료데이터(추가본).xlsx
+++ b/data/전처리완료데이터(추가본).xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python-Project\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workpython\Python-Project\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8B65A69-1FA3-4F3D-B2FE-6575C3E9E63E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81526336-0D65-4E6E-892F-83844640440C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -176,7 +176,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>지역코드</t>
+    <t>adm_cd</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -613,7 +613,7 @@
   <dimension ref="A1:I44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11:K11"/>
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
